--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints5.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints5.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.474081759582593e-07</v>
+        <v>4.493518224517727e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>4.466220494920841e-07</v>
+        <v>4.486850084553845e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>4.452418830948001e-07</v>
+        <v>4.473130465913674e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>4.433158944732177e-07</v>
+        <v>4.452968803457127e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>4.408923013341422e-07</v>
+        <v>4.426974532044068e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>4.380193213843804e-07</v>
+        <v>4.395757086534375e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>4.347451723307348e-07</v>
+        <v>4.359925901787876e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>4.311180718800207e-07</v>
+        <v>4.320090412664546e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>4.271862377390409e-07</v>
+        <v>4.276860054024213e-07</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>4.229978876145967e-07</v>
+        <v>4.230844260726699e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>4.18601239213506e-07</v>
+        <v>4.182652467631998e-07</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>4.140445102425702e-07</v>
+        <v>4.132894109599933e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0937591840859e-07</v>
+        <v>4.082178621490312e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>4.046436814183845e-07</v>
+        <v>4.031115438163149e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>3.998960169787544e-07</v>
+        <v>3.980313994478252e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.951811427965068e-07</v>
+        <v>3.930383725295502e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>3.905472765784423e-07</v>
+        <v>3.881934065474714e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>3.8604263603138e-07</v>
+        <v>3.835574449875894e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>3.817143513106697e-07</v>
+        <v>3.791896895532179e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>3.775876821954328e-07</v>
+        <v>3.75114315152195e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>3.736676337514328e-07</v>
+        <v>3.713230574834932e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>3.699584472222729e-07</v>
+        <v>3.678064289364315e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>3.664643638515618e-07</v>
+        <v>3.645549419003343e-07</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>3.631896248829044e-07</v>
+        <v>3.615591087645225e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>3.601384715599178e-07</v>
+        <v>3.588094419183281e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>3.573151451262065e-07</v>
+        <v>3.562964537510718e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>3.547238868253761e-07</v>
+        <v>3.540106566520751e-07</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>3.52368937901042e-07</v>
+        <v>3.519425630106685e-07</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>3.502545395968096e-07</v>
+        <v>3.500826852161733e-07</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>3.483849331562876e-07</v>
+        <v>3.484215356579142e-07</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>3.467643598230829e-07</v>
+        <v>3.469496267252136e-07</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>3.453970608408084e-07</v>
+        <v>3.456574708073999e-07</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>3.442872774530707e-07</v>
+        <v>3.445355802937956e-07</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>3.434392509034777e-07</v>
+        <v>3.435744675737241e-07</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>3.428508268219604e-07</v>
+        <v>3.427614623428047e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>3.424770466625446e-07</v>
+        <v>3.420625933569598e-07</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>3.422553841252975e-07</v>
+        <v>3.41435147008552e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>3.421232593474041e-07</v>
+        <v>3.40836383035076e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>3.420180924660482e-07</v>
+        <v>3.402235611740244e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>3.418773036184142e-07</v>
+        <v>3.395539411628903e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>3.41638312941686e-07</v>
+        <v>3.387847827391659e-07</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>3.412385405730485e-07</v>
+        <v>3.378733456403465e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>3.406154066496857e-07</v>
+        <v>3.367768896039242e-07</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>3.397063313087806e-07</v>
+        <v>3.354526743673907e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.384487346875198e-07</v>
+        <v>3.338579596682424e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>3.367800369230866e-07</v>
+        <v>3.319500052439712e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>3.346376581526655e-07</v>
+        <v>3.296860708320702e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>3.319590185134366e-07</v>
+        <v>3.27023416170029e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>3.286815381425915e-07</v>
+        <v>3.239193009953477e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>3.247481443444093e-07</v>
+        <v>3.203343600936631e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>3.201725644650446e-07</v>
+        <v>3.162726178093195e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>3.150176430435856e-07</v>
+        <v>3.117681997870315e-07</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>3.093472126387165e-07</v>
+        <v>3.06855837175872e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>3.032251058091189e-07</v>
+        <v>3.015702611249116e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>2.967151551134985e-07</v>
+        <v>2.959462027832422e-07</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>2.898811931105376e-07</v>
+        <v>2.90018393299935e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>2.827870523589257e-07</v>
+        <v>2.838215638240677e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.754965654173429e-07</v>
+        <v>2.773904455047096e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>2.680735648444985e-07</v>
+        <v>2.707597694909556e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>2.605818831990725e-07</v>
+        <v>2.639642669318752e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>2.530853530397449e-07</v>
+        <v>2.57038668976537e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>2.456466484514192e-07</v>
+        <v>2.50017345010144e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>2.382999525723874e-07</v>
+        <v>2.429257673709933e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>2.310498926323197e-07</v>
+        <v>2.357801787881233e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>2.238997243047392e-07</v>
+        <v>2.285963936861114e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>2.168527032631968e-07</v>
+        <v>2.213902264895628e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>2.099120851812156e-07</v>
+        <v>2.141774916230549e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>2.030811257323191e-07</v>
+        <v>2.069740035111649e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.963630805900573e-07</v>
+        <v>1.997955765784984e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.897612054279538e-07</v>
+        <v>1.926580252496325e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.832787559195323e-07</v>
+        <v>1.855771639491447e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.769189877383422e-07</v>
+        <v>1.785688071016403e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.706851565579074e-07</v>
+        <v>1.716487691316964e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.645805180517601e-07</v>
+        <v>1.648328644638998e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.586083278934248e-07</v>
+        <v>1.581369075228282e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.527718417564498e-07</v>
+        <v>1.515767127330863e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.470743153143592e-07</v>
+        <v>1.451680945192514e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.415190042406784e-07</v>
+        <v>1.389268673059025e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.361091642089542e-07</v>
+        <v>1.328688455176423e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.308480508927115e-07</v>
+        <v>1.270098435790493e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.257389199654828e-07</v>
+        <v>1.213656759147101e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.207850271007939e-07</v>
+        <v>1.159521569492044e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.159896279721902e-07</v>
+        <v>1.107851011071331e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.113559782531975e-07</v>
+        <v>1.058803228130756e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.068873336173423e-07</v>
+        <v>1.012536364916126e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.025869497381687e-07</v>
+        <v>9.692085656734296e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>9.845808228920304e-08</v>
+        <v>9.289779746484708e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>9.450825299751349e-08</v>
+        <v>8.919915373041458e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>9.076715914541825e-08</v>
+        <v>8.583379862308161e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>8.727168088673091e-08</v>
+        <v>8.280871983205771e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>8.405870206042769e-08</v>
+        <v>8.013090407914594e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>8.116510650548625e-08</v>
+        <v>7.780733808615123e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>7.862777806089541e-08</v>
+        <v>7.584500857488738e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>7.648360056563241e-08</v>
+        <v>7.425090226715882e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>7.47694578586765e-08</v>
+        <v>7.303200588477191e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>7.352223377901349e-08</v>
+        <v>7.219530614953758e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>7.277881216562205e-08</v>
+        <v>7.174778978326173e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>7.257607685748339e-08</v>
+        <v>7.169644350775202e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>7.295091169357963e-08</v>
+        <v>7.20482540448169e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>7.394020051289106e-08</v>
+        <v>7.281020811626321e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>3.454812331030239e-07</v>
+        <v>3.421792833567784e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>4.635120733968572e-07</v>
+        <v>4.625948919304471e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>4.456046178506701e-07</v>
+        <v>4.405559674959974e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>4.415203962588381e-07</v>
+        <v>4.395606903386321e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>4.41365133916813e-07</v>
+        <v>4.438529699743772e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>4.390977346728286e-07</v>
+        <v>4.419844860428055e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>4.756805795359683e-07</v>
+        <v>4.750557870829028e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>6.234760903050019e-07</v>
+        <v>6.192730235986415e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>8.545934658333167e-07</v>
+        <v>8.51178371162167e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>9.490748475907795e-07</v>
+        <v>9.524769069917397e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>9.925531147141079e-07</v>
+        <v>9.999469453647816e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.032255776469374e-06</v>
+        <v>1.035171590127652e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.011755791898976e-06</v>
+        <v>1.003234815997298e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>9.486968110850546e-07</v>
+        <v>9.388981910452665e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>9.005130631619353e-07</v>
+        <v>9.167301256866663e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>8.795619297870995e-07</v>
+        <v>9.134739923872662e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>8.815554301420717e-07</v>
+        <v>8.977688679412814e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>9.01140314575412e-07</v>
+        <v>9.105380926311059e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>8.83703224470148e-07</v>
+        <v>8.863352400640176e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>8.460239686150426e-07</v>
+        <v>8.398080061189236e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>8.202436474256238e-07</v>
+        <v>8.191151313766683e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>7.889917586589183e-07</v>
+        <v>7.90037615035102e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>7.576244455625225e-07</v>
+        <v>7.593926414950387e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>7.326759382979771e-07</v>
+        <v>7.370949133357394e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>7.120526029476069e-07</v>
+        <v>7.19338118851189e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>6.927261262451011e-07</v>
+        <v>7.008295125463364e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>6.717229041733897e-07</v>
+        <v>6.766691915318795e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>6.466275445841777e-07</v>
+        <v>6.45965522236402e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>6.153509980113454e-07</v>
+        <v>6.101701916682014e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>5.758848410546061e-07</v>
+        <v>5.707606109163795e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>5.29195133638381e-07</v>
+        <v>5.290685789131963e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>4.801117177961754e-07</v>
+        <v>4.862367479105757e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>4.337226408258287e-07</v>
+        <v>4.433951300407426e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>3.945618787248912e-07</v>
+        <v>4.019696659882711e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>3.635093727419324e-07</v>
+        <v>3.653379102702596e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>3.399623392803646e-07</v>
+        <v>3.376508021970471e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>3.228755020429845e-07</v>
+        <v>3.204732216872092e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>3.102990466724328e-07</v>
+        <v>3.100284593869082e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>3.002182585778518e-07</v>
+        <v>3.019930346273985e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.915455080154358e-07</v>
+        <v>2.942839905609137e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.840434150928603e-07</v>
+        <v>2.868732038882298e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.77506068184991e-07</v>
+        <v>2.798086019569055e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.717275556667021e-07</v>
+        <v>2.73138112114509e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>2.665019659128589e-07</v>
+        <v>2.669096617085989e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>2.61630981162111e-07</v>
+        <v>2.611674956896373e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>2.570206056191862e-07</v>
+        <v>2.55905271465775e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>2.526526429629477e-07</v>
+        <v>2.510798899570728e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>2.485106031934992e-07</v>
+        <v>2.466474246586275e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>2.445779963109449e-07</v>
+        <v>2.425639490655363e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.408383323153942e-07</v>
+        <v>2.387855366729022e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.372751212069513e-07</v>
+        <v>2.352682609758225e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.338718729857219e-07</v>
+        <v>2.319681954693964e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.306120976518105e-07</v>
+        <v>2.288414136487216e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.274813348910626e-07</v>
+        <v>2.258496305812458e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.244751794534078e-07</v>
+        <v>2.229825096864509e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>2.21592334118701e-07</v>
+        <v>2.202383532461601e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.188315025766958e-07</v>
+        <v>2.176154660712804e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>2.161913885171423e-07</v>
+        <v>2.151121529727154e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>2.136706956297914e-07</v>
+        <v>2.1272671876137e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.112681276043933e-07</v>
+        <v>2.104574682481479e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>2.089823881307013e-07</v>
+        <v>2.083027062439559e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>2.068121808984656e-07</v>
+        <v>2.062607375596977e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>2.047562095974362e-07</v>
+        <v>2.043298670062775e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>2.028131779173662e-07</v>
+        <v>2.025083993946016e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>2.00981789548006e-07</v>
+        <v>2.00794639535574e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.992607481791065e-07</v>
+        <v>1.991868922400994e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.976487575004183e-07</v>
+        <v>1.976834623190819e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.961445212016939e-07</v>
+        <v>1.962826545834278e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.947467429726839e-07</v>
+        <v>1.949827738440411e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.934541265031387e-07</v>
+        <v>1.937821249118261e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.922653754828107e-07</v>
+        <v>1.926790125976886e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.911791936014505e-07</v>
+        <v>1.916717417125328e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.901942845488091e-07</v>
+        <v>1.907586170672637e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.893093520146374e-07</v>
+        <v>1.899379434727855e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>1.885230996886875e-07</v>
+        <v>1.892080257400038e-07</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.878342312607099e-07</v>
+        <v>1.885671686798232e-07</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.872414504204556e-07</v>
+        <v>1.88013677103148e-07</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.867434608576762e-07</v>
+        <v>1.875458558208835e-07</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.863389662621228e-07</v>
+        <v>1.871620096439344e-07</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.860266703235463e-07</v>
+        <v>1.868604433832053e-07</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.858052767316979e-07</v>
+        <v>1.86639461849601e-07</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.85673489176329e-07</v>
+        <v>1.864973698540264e-07</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.856300113471905e-07</v>
+        <v>1.864324722073863e-07</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.856735469340338e-07</v>
+        <v>1.864430737205855e-07</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.858027996266099e-07</v>
+        <v>1.865274792045287e-07</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.860164731146698e-07</v>
+        <v>1.866839934701207e-07</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.86313271087965e-07</v>
+        <v>1.869109213282664e-07</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.866918968169801e-07</v>
+        <v>1.87206567300795e-07</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.871495555175785e-07</v>
+        <v>1.875682030320333e-07</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.876785896677392e-07</v>
+        <v>1.879897474096802e-07</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.88270356801894e-07</v>
+        <v>1.884644402233446e-07</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.889162144544737e-07</v>
+        <v>1.889855212626351e-07</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.896075201599097e-07</v>
+        <v>1.895462303171608e-07</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.903356314526336e-07</v>
+        <v>1.901398071765307e-07</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.91091905867077e-07</v>
+        <v>1.90759491630354e-07</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.918677009376706e-07</v>
+        <v>1.913985234682389e-07</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.926543741988462e-07</v>
+        <v>1.92050142479795e-07</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.93443283185035e-07</v>
+        <v>1.927075884546308e-07</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.942257854306688e-07</v>
+        <v>1.933641011823559e-07</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.949932384701782e-07</v>
+        <v>1.940129204525784e-07</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.95736999837995e-07</v>
+        <v>1.946472860549076e-07</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.964484270685509e-07</v>
+        <v>1.952604377789527e-07</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.971188776962764e-07</v>
+        <v>1.958456154143221e-07</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.977397092556035e-07</v>
+        <v>1.96396058750625e-07</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.983022792809633e-07</v>
+        <v>1.969050075774704e-07</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.987979453067875e-07</v>
+        <v>1.973657016844673e-07</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.992180648675071e-07</v>
+        <v>1.977713808612243e-07</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.995539954975535e-07</v>
+        <v>1.981152848973506e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.997970947313583e-07</v>
+        <v>1.983906535824551e-07</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.999387201033526e-07</v>
+        <v>1.985907267061466e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.999702291479679e-07</v>
+        <v>1.987087440580342e-07</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.998829793996355e-07</v>
+        <v>1.987379454277267e-07</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.996683283927867e-07</v>
+        <v>1.986715706048331e-07</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.99317633661853e-07</v>
+        <v>1.985028593789624e-07</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.988236339134156e-07</v>
+        <v>1.982254915266398e-07</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.981864472759212e-07</v>
+        <v>1.978354976168479e-07</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.974086463198136e-07</v>
+        <v>1.973296901068845e-07</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.964928052684604e-07</v>
+        <v>1.967048819806041e-07</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.954414983452297e-07</v>
+        <v>1.959578862218611e-07</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.942572997734887e-07</v>
+        <v>1.950855158145094e-07</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.929427837766067e-07</v>
+        <v>1.940845837424043e-07</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.91500524577951e-07</v>
+        <v>1.929519029893997e-07</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.899330964008889e-07</v>
+        <v>1.916842865393496e-07</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.882430734687897e-07</v>
+        <v>1.902785473761094e-07</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.864330300050208e-07</v>
+        <v>1.887314984835331e-07</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.8450554023295e-07</v>
+        <v>1.87039952845475e-07</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.824631783759446e-07</v>
+        <v>1.852007234457888e-07</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.803085186573741e-07</v>
+        <v>1.832106232683303e-07</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.780441353006058e-07</v>
+        <v>1.810664652969535e-07</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.756726025290065e-07</v>
+        <v>1.787650625155114e-07</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.731964945659463e-07</v>
+        <v>1.763032279078606e-07</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.706177114438144e-07</v>
+        <v>1.736780290666825e-07</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.679309915346458e-07</v>
+        <v>1.708892381921216e-07</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.651267546737951e-07</v>
+        <v>1.679382583835747e-07</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.621953611447434e-07</v>
+        <v>1.648265152302623e-07</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.59127171230968e-07</v>
+        <v>1.615554343214015e-07</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.559125452159474e-07</v>
+        <v>1.5812644124621e-07</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.525418433831588e-07</v>
+        <v>1.545409615939043e-07</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>1.490054260160836e-07</v>
+        <v>1.508004209537057e-07</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>1.452936533981989e-07</v>
+        <v>1.469062449148306e-07</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.413968858129816e-07</v>
+        <v>1.428598590664953e-07</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>1.373054835439136e-07</v>
+        <v>1.386626889979214e-07</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.33009806874472e-07</v>
+        <v>1.343161602983251e-07</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.28500216088133e-07</v>
+        <v>1.298216985569225e-07</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.237730838928715e-07</v>
+        <v>1.251857571380502e-07</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.188984330337928e-07</v>
+        <v>1.20476377842516e-07</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.139956487292006e-07</v>
+        <v>1.158028808962739e-07</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.091850259796345e-07</v>
+        <v>1.112753473132908e-07</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.045868597856405e-07</v>
+        <v>1.0700385810754e-07</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.003214451477581e-07</v>
+        <v>1.030984942929885e-07</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>9.650907706652897e-08</v>
+        <v>9.966933688360537e-08</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>9.327005054249344e-08</v>
+        <v>9.682646689335861e-08</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>9.072466057619622e-08</v>
+        <v>9.467996533621989e-08</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>8.899320216817735e-08</v>
+        <v>9.333991322615686e-08</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>8.81959703189784e-08</v>
+        <v>9.291639157713863e-08</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>8.845326002914177e-08</v>
+        <v>9.351948140313472e-08</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>8.988536629920861e-08</v>
+        <v>9.525926371811383e-08</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>9.260206429900041e-08</v>
+        <v>9.823530980059426e-08</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>9.656346819702526e-08</v>
+        <v>1.023976735487359e-07</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.016183206830215e-07</v>
+        <v>1.075851442586567e-07</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.076127127558005e-07</v>
+        <v>1.13633862080221e-07</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.143927354141752e-07</v>
+        <v>1.203799671632949e-07</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.218044796569493e-07</v>
+        <v>1.276595996577355e-07</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.296940364829355e-07</v>
+        <v>1.353088997134084e-07</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.379074968909436e-07</v>
+        <v>1.431640074801765e-07</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.462909518797871e-07</v>
+        <v>1.510610631079065e-07</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.546904924482683e-07</v>
+        <v>1.58836206746454e-07</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.629522095952008e-07</v>
+        <v>1.663255785456856e-07</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.709221943193977e-07</v>
+        <v>1.733653186554672e-07</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.784465376196617e-07</v>
+        <v>1.797915672256553e-07</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>1.853713304948063e-07</v>
+        <v>1.854404644061163e-07</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.915525189834448e-07</v>
+        <v>1.901837793436969e-07</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.969839538930184e-07</v>
+        <v>1.943918492976567e-07</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.017609609648778e-07</v>
+        <v>1.988018745929038e-07</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.059825862140673e-07</v>
+        <v>2.04159430721551e-07</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.104814335952724e-07</v>
+        <v>2.111385078878714e-07</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.179975263747876e-07</v>
+        <v>2.202112876823167e-07</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.292565519537904e-07</v>
+        <v>2.30964117972841e-07</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>2.411818951965813e-07</v>
+        <v>2.415893686903313e-07</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>2.507324810289021e-07</v>
+        <v>2.503382342087327e-07</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>2.570824126320716e-07</v>
+        <v>2.56537082620755e-07</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.601952462352348e-07</v>
+        <v>2.598954562251119e-07</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.60035506184011e-07</v>
+        <v>2.601233672119956e-07</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.56607293152727e-07</v>
+        <v>2.569783892625595e-07</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.506951029308788e-07</v>
+        <v>2.511559484669408e-07</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.437978489574964e-07</v>
+        <v>2.442100338414305e-07</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.374407932229456e-07</v>
+        <v>2.377262991986044e-07</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>2.331491977176009e-07</v>
+        <v>2.332903983510474e-07</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>2.324483244318274e-07</v>
+        <v>2.324879851113353e-07</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>2.368634353559935e-07</v>
+        <v>2.369047132920464e-07</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>2.47919792480474e-07</v>
+        <v>2.481262367057662e-07</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>2.671426577956278e-07</v>
+        <v>2.677382091650638e-07</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.950897652534105e-07</v>
+        <v>2.963057516102871e-07</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>3.210843487569666e-07</v>
+        <v>3.225440166628335e-07</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>3.308107291021582e-07</v>
+        <v>3.313084212200485e-07</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>3.277101811161236e-07</v>
+        <v>3.260776023024863e-07</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>3.206463024424441e-07</v>
+        <v>3.160305741950028e-07</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.143102860123423e-07</v>
+        <v>3.064656687494954e-07</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>3.080757613044315e-07</v>
+        <v>2.97735192601668e-07</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>3.009713143457114e-07</v>
+        <v>2.898705171266368e-07</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.920256636685255e-07</v>
+        <v>2.829030375572132e-07</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.809671043477944e-07</v>
+        <v>2.769901084636322e-07</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.698565105438511e-07</v>
+        <v>2.727090672174121e-07</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.612403188708334e-07</v>
+        <v>2.707246771130904e-07</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>2.576649659428792e-07</v>
+        <v>2.717017014452061e-07</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>2.613812197334803e-07</v>
+        <v>2.761659851278956e-07</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>2.706636763528719e-07</v>
+        <v>2.827751893063924e-07</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.809401024897459e-07</v>
+        <v>2.888494070576774e-07</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.875763984874468e-07</v>
+        <v>2.916796638765944e-07</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.869279153182161e-07</v>
+        <v>2.891401702272995e-07</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>2.795980395449946e-07</v>
+        <v>2.816089406377831e-07</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>2.673299678023704e-07</v>
+        <v>2.701357968816383e-07</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>2.518669106631424e-07</v>
+        <v>2.55770568947675e-07</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>2.34952078120401e-07</v>
+        <v>2.395630879239051e-07</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.182657046246927e-07</v>
+        <v>2.226825940827049e-07</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>2.032517826737969e-07</v>
+        <v>2.067462707829583e-07</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.912989187872417e-07</v>
+        <v>1.934763198433811e-07</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.837957194845634e-07</v>
+        <v>1.845949430826965e-07</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.820303035168782e-07</v>
+        <v>1.817099821853521e-07</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.85713180759714e-07</v>
+        <v>1.846338805929719e-07</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.933014109810869e-07</v>
+        <v>1.917525924852845e-07</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.032174750313987e-07</v>
+        <v>2.01412719494702e-07</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.138838537610367e-07</v>
+        <v>2.119608632536223e-07</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.237230280204022e-07</v>
+        <v>2.217436253944568e-07</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.311574786598922e-07</v>
+        <v>2.291076075496128e-07</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>2.346096865299043e-07</v>
+        <v>2.323994113514978e-07</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.325088733695219e-07</v>
+        <v>2.299727639940471e-07</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.241622950527533e-07</v>
+        <v>2.21109532348722e-07</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.106171096166908e-07</v>
+        <v>2.069307740067287e-07</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.931252980233419e-07</v>
+        <v>1.887740578267958e-07</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.729388412346961e-07</v>
+        <v>1.679769526676333e-07</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.513097202127484e-07</v>
+        <v>1.458770273879569e-07</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.294899159194839e-07</v>
+        <v>1.238118508464724e-07</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.087314093169175e-07</v>
+        <v>1.031189919019154e-07</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>9.028618136703413e-08</v>
+        <v>8.513601941299138e-08</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>7.540358833645315e-08</v>
+        <v>7.119755490287816e-08</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>6.479024024588554e-08</v>
+        <v>6.20287566731443e-08</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>5.794846312762918e-08</v>
+        <v>5.700246266416404e-08</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>5.421866186979389e-08</v>
+        <v>5.530968554727e-08</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>5.294124136048923e-08</v>
+        <v>5.61414379937956e-08</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>5.345660648782588e-08</v>
+        <v>5.868873267507245e-08</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>5.510516213991249e-08</v>
+        <v>6.214258226243301e-08</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>5.722731320485978e-08</v>
+        <v>6.569399942721141e-08</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>5.916346457077536e-08</v>
+        <v>6.853399684073681e-08</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>6.029323704988863e-08</v>
+        <v>6.990299772345732e-08</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>6.059268988298855e-08</v>
+        <v>6.979291466984337e-08</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>6.050200891341021e-08</v>
+        <v>6.878044186004696e-08</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>6.04736105864292e-08</v>
+        <v>6.745768356008449e-08</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>6.095991134732089e-08</v>
+        <v>6.641674403597103e-08</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>6.241332764136158e-08</v>
+        <v>6.624972755372208e-08</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>6.528627591382549e-08</v>
+        <v>6.754873837935333e-08</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>7.003117260998838e-08</v>
+        <v>7.090588077887983e-08</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>7.710043417512561e-08</v>
+        <v>7.691325901831683e-08</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>8.677781295673386e-08</v>
+        <v>8.595918681434382e-08</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>9.865147969514307e-08</v>
+        <v>9.759153252687545e-08</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.121303171867619e-07</v>
+        <v>1.111415375687606e-07</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.266232080444573e-07</v>
+        <v>1.259404431310827e-07</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.415390348811029e-07</v>
+        <v>1.413194904049319e-07</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.562866803095518e-07</v>
+        <v>1.566099205813773e-07</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.702750269426776e-07</v>
+        <v>1.711429748515095e-07</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.829129573933526e-07</v>
+        <v>1.842498944064168e-07</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.936149548092923e-07</v>
+        <v>1.952676974218514e-07</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.028458955224455e-07</v>
+        <v>2.046168888270576e-07</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.133503045366823e-07</v>
+        <v>2.150694445772922e-07</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.281714893442916e-07</v>
+        <v>2.297055365236322e-07</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.503527574375746e-07</v>
+        <v>2.516053365171665e-07</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.829374163088287e-07</v>
+        <v>2.8384901640898e-07</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>3.289687734503748e-07</v>
+        <v>3.295167480501815e-07</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>3.9149013635447e-07</v>
+        <v>3.916887032918163e-07</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>4.735448125134287e-07</v>
+        <v>4.734450539849862e-07</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>5.781100351621109e-07</v>
+        <v>5.7779965187937e-07</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>7.044616522644229e-07</v>
+        <v>7.040511916266402e-07</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>8.462847247260493e-07</v>
+        <v>8.45886779053661e-07</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>9.968000940525915e-07</v>
+        <v>9.965275733556976e-07</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.149228601749666e-06</v>
+        <v>1.149194733728029e-06</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.296791089322681e-06</v>
+        <v>1.297109419365729e-06</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.432708398277255e-06</v>
+        <v>1.433492789464077e-06</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.550201370118982e-06</v>
+        <v>1.551566003218335e-06</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.642490846353305e-06</v>
+        <v>1.644550219823603e-06</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.704130686417366e-06</v>
+        <v>1.706995167431252e-06</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.736651230883244e-06</v>
+        <v>1.740403771174769e-06</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.74385747303712e-06</v>
+        <v>1.748546017200376e-06</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.729555657982371e-06</v>
+        <v>1.735193139293524e-06</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.697552030822393e-06</v>
+        <v>1.704116371239681e-06</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.65165283666057e-06</v>
+        <v>1.659086946824305e-06</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.595664320600257e-06</v>
+        <v>1.603876099832827e-06</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.533392727744893e-06</v>
+        <v>1.542255064050756e-06</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.468644251506363e-06</v>
+        <v>1.477995022302249e-06</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.404532244930158e-06</v>
+        <v>1.414184104157555e-06</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.34174032236494e-06</v>
+        <v>1.351515023152412e-06</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.280419766656716e-06</v>
+        <v>1.29015568107272e-06</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.220721860651525e-06</v>
+        <v>1.23027397970441e-06</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.162797887195378e-06</v>
+        <v>1.172037820833385e-06</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.106799129134367e-06</v>
+        <v>1.115615106245629e-06</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.052876869314501e-06</v>
+        <v>1.061173737727043e-06</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.001182390581819e-06</v>
+        <v>1.008881617063559e-06</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>9.518669757823369e-07</v>
+        <v>9.589066460410849e-07</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>9.050819077621367e-07</v>
+        <v>9.114167264455946e-07</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>8.609784693672332e-07</v>
+        <v>8.665797600629947e-07</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>8.197079434436466e-07</v>
+        <v>8.24563648679198e-07</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>7.814216128374517e-07</v>
+        <v>7.855362940801717e-07</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>7.462707603946671e-07</v>
+        <v>7.496655980518261e-07</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>7.144066689613171e-07</v>
+        <v>7.171194623800773e-07</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>6.85980621383468e-07</v>
+        <v>6.880657888508848e-07</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>6.611439005071425e-07</v>
+        <v>6.626724792501629e-07</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>6.400100941515484e-07</v>
+        <v>6.410676140669774e-07</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>6.224409784981178e-07</v>
+        <v>6.231132581691047e-07</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>6.081951551334483e-07</v>
+        <v>6.085624820418977e-07</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>5.97030913940215e-07</v>
+        <v>5.971680268844492e-07</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>5.887065448011018e-07</v>
+        <v>5.886826338958613e-07</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>5.829803375987904e-07</v>
+        <v>5.82859044275234e-07</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>5.796105822159697e-07</v>
+        <v>5.79449999221674e-07</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>5.783555685353201e-07</v>
+        <v>5.7820823993428e-07</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>5.789735864395263e-07</v>
+        <v>5.788865076121549e-07</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>5.812229258112713e-07</v>
+        <v>5.812375434543994e-07</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>5.848618765332389e-07</v>
+        <v>5.850140886601154e-07</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>5.89648728488115e-07</v>
+        <v>5.899688844284074e-07</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>5.953417715585792e-07</v>
+        <v>5.958546719583728e-07</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>6.016992956273171e-07</v>
+        <v>6.024241924491151e-07</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>6.084795905770157e-07</v>
+        <v>6.094301870997397e-07</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>6.154409462903491e-07</v>
+        <v>6.166253971093386e-07</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>6.223416526500139e-07</v>
+        <v>6.237625636770266e-07</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>6.28939999538687e-07</v>
+        <v>6.305944280018988e-07</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>6.34994276839047e-07</v>
+        <v>6.368737312830513e-07</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>6.402627744337882e-07</v>
+        <v>6.423532147195971e-07</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>6.445037822055852e-07</v>
+        <v>6.467856195106289e-07</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>6.474755900371291e-07</v>
+        <v>6.499236868552557e-07</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>6.489364878110991e-07</v>
+        <v>6.515201579525747e-07</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>6.486447654101797e-07</v>
+        <v>6.513277740016887e-07</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>6.463587127170542e-07</v>
+        <v>6.490992762016991e-07</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>6.418366196144054e-07</v>
+        <v>6.445874057517066e-07</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>6.348601935389804e-07</v>
+        <v>6.375688450542409e-07</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>6.254841749149576e-07</v>
+        <v>6.280994148999412e-07</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>6.139398369670258e-07</v>
+        <v>6.164154164010591e-07</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>6.00461412365203e-07</v>
+        <v>6.027561762925261e-07</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>5.852831337794693e-07</v>
+        <v>5.873610213092348e-07</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>5.686392338798417e-07</v>
+        <v>5.704692781861148e-07</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>5.507639453363414e-07</v>
+        <v>5.523202736581012e-07</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>5.318915008189411e-07</v>
+        <v>5.331533344600785e-07</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>5.122561329976619e-07</v>
+        <v>5.132077873269812e-07</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>4.920920745425269e-07</v>
+        <v>4.927229589937455e-07</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>4.716335581235045e-07</v>
+        <v>4.719381761952523e-07</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>4.511148164106365e-07</v>
+        <v>4.510927656664566e-07</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>4.307700820738904e-07</v>
+        <v>4.304260541422386e-07</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>4.108335877832901e-07</v>
+        <v>4.101773683575351e-07</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>3.915395662088577e-07</v>
+        <v>3.905860350472813e-07</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>3.731222500205629e-07</v>
+        <v>3.718913809463598e-07</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>3.558158718884292e-07</v>
+        <v>3.543327327897065e-07</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>3.398501658418836e-07</v>
+        <v>3.381448156113501e-07</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>3.25324886392758e-07</v>
+        <v>3.234293971993673e-07</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>3.121931135079403e-07</v>
+        <v>3.101382105986101e-07</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>3.004000742166302e-07</v>
+        <v>2.982149560116256e-07</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>2.89890995547996e-07</v>
+        <v>2.876033336409294e-07</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>2.806111045312459e-07</v>
+        <v>2.782470436890776e-07</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>2.725056281955531e-07</v>
+        <v>2.700897863585904e-07</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>2.655197935701157e-07</v>
+        <v>2.630752618520137e-07</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>2.595988276841281e-07</v>
+        <v>2.571471703718894e-07</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>2.546879575667693e-07</v>
+        <v>2.522492121207439e-07</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>2.507324102472344e-07</v>
+        <v>2.483250873011199e-07</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.476774127547153e-07</v>
+        <v>2.453184961155565e-07</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.454681921183961e-07</v>
+        <v>2.431731387665856e-07</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.440499753674693e-07</v>
+        <v>2.418327154567472e-07</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.433679895311248e-07</v>
+        <v>2.412409263885783e-07</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.433674616385508e-07</v>
+        <v>2.413414717646151e-07</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.439936187189377e-07</v>
+        <v>2.420780517873952e-07</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.451916878014738e-07</v>
+        <v>2.433943666594543e-07</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.469068959153506e-07</v>
+        <v>2.452341165833317e-07</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.490844700897546e-07</v>
+        <v>2.475410017615612e-07</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.516696373538794e-07</v>
+        <v>2.502587223966839e-07</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.546076247369126e-07</v>
+        <v>2.53330978691235e-07</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.578436592680407e-07</v>
+        <v>2.567014708477483e-07</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.613229679764591e-07</v>
+        <v>2.603138990687668e-07</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.649907778913544e-07</v>
+        <v>2.641119635568247e-07</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.687923160419125e-07</v>
+        <v>2.680393645144551e-07</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.7267280945733e-07</v>
+        <v>2.720398021442025e-07</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.765774851667928e-07</v>
+        <v>2.760569766486e-07</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.80451570199487e-07</v>
+        <v>2.800345882301812e-07</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.842402915846093e-07</v>
+        <v>2.839163370914903e-07</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.878888763513453e-07</v>
+        <v>2.876459234350605e-07</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.913425515288816e-07</v>
+        <v>2.911670474634258e-07</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.945465441464142e-07</v>
+        <v>2.944234093791297e-07</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.974460812331266e-07</v>
+        <v>2.973587093847032e-07</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.999863898182136e-07</v>
+        <v>2.999166476826887e-07</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>3.021231986102027e-07</v>
+        <v>3.020515951906604e-07</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>3.039726793928673e-07</v>
+        <v>3.038809484033935e-07</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>3.057762267757906e-07</v>
+        <v>3.056493422360501e-07</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>3.077785570800533e-07</v>
+        <v>3.076047867817702e-07</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>3.102243866267359e-07</v>
+        <v>3.099952921336932e-07</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>3.133584317369255e-07</v>
+        <v>3.130688683849647e-07</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>3.174254087317029e-07</v>
+        <v>3.17073525628725e-07</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>3.226700339321455e-07</v>
+        <v>3.222572739581104e-07</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>3.293370236593456e-07</v>
+        <v>3.28868123466272e-07</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>3.376710942343735e-07</v>
+        <v>3.371540842463391e-07</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>3.479169619783268e-07</v>
+        <v>3.473631663914681e-07</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>3.603193432122814e-07</v>
+        <v>3.597433799947942e-07</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>3.75122954257306e-07</v>
+        <v>3.745427351494449e-07</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>3.925725114345098e-07</v>
+        <v>3.920092419485882e-07</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>4.129127310649632e-07</v>
+        <v>4.123909104853538e-07</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>4.363883294697266e-07</v>
+        <v>4.359357508528608e-07</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>4.632440229699249e-07</v>
+        <v>4.628917731442932e-07</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>4.937245278866213e-07</v>
+        <v>4.935069874527731e-07</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>5.280745605408656e-07</v>
+        <v>5.28029403871409e-07</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>5.665388372538026e-07</v>
+        <v>5.667070324934052e-07</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>6.093620743464858e-07</v>
+        <v>6.097878834118741e-07</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>6.567889881399534e-07</v>
+        <v>6.575199667199121e-07</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>7.089403743388983e-07</v>
+        <v>7.100264252841248e-07</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>7.646043748942681e-07</v>
+        <v>7.660875682844292e-07</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>8.21757973244797e-07</v>
+        <v>8.236663500759177e-07</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>8.783666590627495e-07</v>
+        <v>8.807141434481347e-07</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>9.323959220201883e-07</v>
+        <v>9.351823211904206e-07</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>9.818112517893724e-07</v>
+        <v>9.850222560923142e-07</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.024578138042413e-06</v>
+        <v>1.028185320943205e-06</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.058662070451443e-06</v>
+        <v>1.062622888532504e-06</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.082028538688688e-06</v>
+        <v>1.086286331649716e-06</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.092643032426271e-06</v>
+        <v>1.097127023084244e-06</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.088471041336364e-06</v>
+        <v>1.093096335625538e-06</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.067478055091123e-06</v>
+        <v>1.072145642063032e-06</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.027629563362705e-06</v>
+        <v>1.032226315186162e-06</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>9.676034654050609e-07</v>
+        <v>9.720054654035746e-07</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>8.909746135663666e-07</v>
+        <v>8.950700324448766e-07</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>8.033764596879236e-07</v>
+        <v>8.070751723267251e-07</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>7.104495795177135e-07</v>
+        <v>7.136831982519485e-07</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>6.178345488039563e-07</v>
+        <v>6.205564234236142e-07</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>5.311719432948697e-07</v>
+        <v>5.333571610447877e-07</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>4.561023387384378e-07</v>
+        <v>4.577477243182992e-07</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>3.982663108828867e-07</v>
+        <v>3.993904264472222e-07</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>3.633044354763802e-07</v>
+        <v>3.639475806345683e-07</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>3.555604596583148e-07</v>
+        <v>3.557808928149386e-07</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>3.734558702466481e-07</v>
+        <v>3.733125525000219e-07</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>4.137225439848883e-07</v>
+        <v>4.132702159927623e-07</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>4.730922301178105e-07</v>
+        <v>4.723814117258678e-07</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>5.482966778900143e-07</v>
+        <v>5.473736681318716e-07</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>6.36067636546338e-07</v>
+        <v>6.349745136435454e-07</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>7.331368553314207e-07</v>
+        <v>7.319114766934617e-07</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>8.36236083489868e-07</v>
+        <v>8.349120857141596e-07</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>9.420970702665687e-07</v>
+        <v>9.407038691384609e-07</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.047451564906132e-06</v>
+        <v>1.046014355398908e-06</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.14903131665317e-06</v>
+        <v>1.147571072928048e-06</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.243568074752568e-06</v>
+        <v>1.242101550158697e-06</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.327793588448932e-06</v>
+        <v>1.326333315523396e-06</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>1.398439606986907e-06</v>
+        <v>1.396993897454723e-06</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.452237879611322e-06</v>
+        <v>1.450810824385441e-06</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.485920155566808e-06</v>
+        <v>1.484511624748114e-06</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.496218184098066e-06</v>
+        <v>1.494823826975376e-06</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.480542330111996e-06</v>
+        <v>1.479154272580139e-06</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.440852447453325e-06</v>
+        <v>1.439463967554851e-06</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>1.380978450353677e-06</v>
+        <v>1.379585900153043e-06</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.30475600198874e-06</v>
+        <v>1.303358813480538e-06</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.216020765534448e-06</v>
+        <v>1.214621450643405e-06</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.118608404166439e-06</v>
+        <v>1.117212554747417e-06</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.01635458106059e-06</v>
+        <v>1.014970868898587e-06</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>9.130949593927933e-07</v>
+        <v>9.117351362029451e-07</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>8.126652023386636e-07</v>
+        <v>8.113440997662392e-07</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>7.189009730740948e-07</v>
+        <v>7.176365026944994e-07</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>6.356354796292175e-07</v>
+        <v>6.344486291582447e-07</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>5.65342041259206e-07</v>
+        <v>5.642547754373505e-07</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>5.068782033809605e-07</v>
+        <v>5.059078826878563e-07</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>4.585072111476035e-07</v>
+        <v>4.576656744439066e-07</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>4.184923097121328e-07</v>
+        <v>4.177858742395211e-07</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>3.850967442277072e-07</v>
+        <v>3.8452620560888e-07</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>3.565837598473511e-07</v>
+        <v>3.561443920860299e-07</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>3.312221551493821e-07</v>
+        <v>3.309037307356914e-07</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>3.07832443304195e-07</v>
+        <v>3.07621230618405e-07</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.862473881073755e-07</v>
+        <v>2.861298161284608e-07</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>2.664081895365456e-07</v>
+        <v>2.663712404198667e-07</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>2.482560475693216e-07</v>
+        <v>2.482872566466251e-07</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>2.317321621832711e-07</v>
+        <v>2.318196179626899e-07</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>2.167777333560116e-07</v>
+        <v>2.169100775220646e-07</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>2.033339610651552e-07</v>
+        <v>2.035003884787474e-07</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.913420452882778e-07</v>
+        <v>1.915323039867004e-07</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.807431860029928e-07</v>
+        <v>1.809475771999231e-07</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.714785831869083e-07</v>
+        <v>1.716879612724096e-07</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.634894368176081e-07</v>
+        <v>1.6369520935813e-07</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.567169468727015e-07</v>
+        <v>1.569110746110796e-07</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.511023133297936e-07</v>
+        <v>1.512773101852497e-07</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.465867361664745e-07</v>
+        <v>1.467356692346164e-07</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.431114153603531e-07</v>
+        <v>1.432279049131749e-07</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.406175508890233e-07</v>
+        <v>1.406957703749052e-07</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.390463427300894e-07</v>
+        <v>1.390810187737975e-07</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.38338990861152e-07</v>
+        <v>1.383254032638388e-07</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.384366952598102e-07</v>
+        <v>1.383706769990141e-07</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.392806559036655e-07</v>
+        <v>1.391585931333111e-07</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.408120727703166e-07</v>
+        <v>1.406309048207147e-07</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.429721458373667e-07</v>
+        <v>1.427293652152141e-07</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.457020750824152e-07</v>
+        <v>1.453957274707948e-07</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.489430604830593e-07</v>
+        <v>1.485717447414404e-07</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>1.526363020169053e-07</v>
+        <v>1.52199170181143e-07</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>1.567229996615471e-07</v>
+        <v>1.562197569438827e-07</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>1.611443533945926e-07</v>
+        <v>1.605752581836536e-07</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>1.658415631936385e-07</v>
+        <v>1.652074270544385e-07</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>1.707558290362809e-07</v>
+        <v>1.700580167102196e-07</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.758283509001291e-07</v>
+        <v>1.750687803049923e-07</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.810003287627789e-07</v>
+        <v>1.801814709927386e-07</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.862129626018264e-07</v>
+        <v>1.853378419274405e-07</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.914074523948811e-07</v>
+        <v>1.90479646263094e-07</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.96524998119539e-07</v>
+        <v>1.955486371536809e-07</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.01506799753396e-07</v>
+        <v>2.004865677531832e-07</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.062940572740614e-07</v>
+        <v>2.052351912155967e-07</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.108279706591273e-07</v>
+        <v>2.097362606948992e-07</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.150497398862022e-07</v>
+        <v>2.139315293450855e-07</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.189005649328824e-07</v>
+        <v>2.17762750320138e-07</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.223216631864158e-07</v>
+        <v>2.211716939712924e-07</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.252724642052251e-07</v>
+        <v>2.241181206317682e-07</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.277650899653707e-07</v>
+        <v>2.266138402028947e-07</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.298211366488119e-07</v>
+        <v>2.286800212062225e-07</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.314622004375135e-07</v>
+        <v>2.303378321633078e-07</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.327098775134344e-07</v>
+        <v>2.316084415957009e-07</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.335857640585349e-07</v>
+        <v>2.325130180249537e-07</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.341114562547778e-07</v>
+        <v>2.3307272997262e-07</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.343085502841232e-07</v>
+        <v>2.333087459602516e-07</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.341986423285321e-07</v>
+        <v>2.332422345094008e-07</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.338033285699656e-07</v>
+        <v>2.328943641416199e-07</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.331442051903845e-07</v>
+        <v>2.322863033784614e-07</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.322428683717509e-07</v>
+        <v>2.314392207414786e-07</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.311209142960241e-07</v>
+        <v>2.303742847522222e-07</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.29799939145167e-07</v>
+        <v>2.291126639322466e-07</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.283015391011386e-07</v>
+        <v>2.27675526803102e-07</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.266473103459006e-07</v>
+        <v>2.260840418863417e-07</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.248588490614159e-07</v>
+        <v>2.243593777035199e-07</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.229577514296423e-07</v>
+        <v>2.225227027761857e-07</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.209656136325425e-07</v>
+        <v>2.205951856258932e-07</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.189040318520791e-07</v>
+        <v>2.185979947741965e-07</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.167946022702097e-07</v>
+        <v>2.165522987426446e-07</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.146589210688969e-07</v>
+        <v>2.144792660527914e-07</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.12518584430104e-07</v>
+        <v>2.124000652261915e-07</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.103951885357878e-07</v>
+        <v>2.103358647843933e-07</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>2.083103295679133e-07</v>
+        <v>2.083078332489531e-07</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>2.062856037084378e-07</v>
+        <v>2.063371391414195e-07</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>2.043426071393241e-07</v>
+        <v>2.044449509833468e-07</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>2.02502936042535e-07</v>
+        <v>2.026524372962891e-07</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>2.007881866000279e-07</v>
+        <v>2.009807666017954e-07</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.992199549937658e-07</v>
+        <v>1.994511074214199e-07</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.978198374057109e-07</v>
+        <v>1.980846282767162e-07</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.966094300178216e-07</v>
+        <v>1.96902497689234e-07</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.956103290120603e-07</v>
+        <v>1.959258841805273e-07</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.948441305703886e-07</v>
+        <v>1.95175956272149e-07</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.943324308747662e-07</v>
+        <v>1.946738824856501e-07</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.94096826107155e-07</v>
+        <v>1.944408313425839e-07</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.941589124495155e-07</v>
+        <v>1.944979713645024e-07</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.945402856909488e-07</v>
+        <v>1.94866470687294e-07</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.952512662263084e-07</v>
+        <v>1.955564285803455e-07</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.962614121097836e-07</v>
+        <v>1.965379286029778e-07</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.975310730566262e-07</v>
+        <v>1.977720146417371e-07</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.990205987820835e-07</v>
+        <v>1.992197305831655e-07</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>2.006903390014082e-07</v>
+        <v>2.008421203138101e-07</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>2.025006434298485e-07</v>
+        <v>2.026002277202141e-07</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.044118617826526e-07</v>
+        <v>2.044550966889202e-07</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.063843437750737e-07</v>
+        <v>2.063677711064761e-07</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>2.083784391223598e-07</v>
+        <v>2.082992948594247e-07</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.103544975397589e-07</v>
+        <v>2.102107118343085e-07</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.122728687425243e-07</v>
+        <v>2.120630659176754e-07</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.140939024459038e-07</v>
+        <v>2.13817400996068e-07</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.15777948365146e-07</v>
+        <v>2.154347609560295e-07</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.172853562155035e-07</v>
+        <v>2.16876189684107e-07</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>2.185764757122235e-07</v>
+        <v>2.181027310668426e-07</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>2.19611656570558e-07</v>
+        <v>2.190754289907828e-07</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.203512485057555e-07</v>
+        <v>2.197553273424707e-07</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>2.207581215529623e-07</v>
+        <v>2.201059918209214e-07</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>2.208393940451925e-07</v>
+        <v>2.201352626275737e-07</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>2.20639933871663e-07</v>
+        <v>2.198887518759651e-07</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>2.202058192042682e-07</v>
+        <v>2.194132826790603e-07</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>2.195831282149017e-07</v>
+        <v>2.187556781498219e-07</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>2.188179390754575e-07</v>
+        <v>2.179627614012143e-07</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>2.179563299578307e-07</v>
+        <v>2.17081355546202e-07</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>2.170443790339139e-07</v>
+        <v>2.161582836977475e-07</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>2.161281644756026e-07</v>
+        <v>2.15240368968816e-07</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>2.152537644547892e-07</v>
+        <v>2.143744344723696e-07</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>2.144672571433688e-07</v>
+        <v>2.136073033213733e-07</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>2.138147207132358e-07</v>
+        <v>2.129857986287912e-07</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.133422333362831e-07</v>
+        <v>2.125567435075861e-07</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.130958731844057e-07</v>
+        <v>2.123669610707224e-07</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.131214947164178e-07</v>
+        <v>2.124630370515019e-07</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.134265495358112e-07</v>
+        <v>2.128508083059894e-07</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.139368645962483e-07</v>
+        <v>2.134495006086655e-07</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.145678251150329e-07</v>
+        <v>2.14167260114294e-07</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.152348163094707e-07</v>
+        <v>2.149122329776407e-07</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>2.158532233968651e-07</v>
+        <v>2.155925653534688e-07</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>2.163384315945215e-07</v>
+        <v>2.161164033965442e-07</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>2.166058261197438e-07</v>
+        <v>2.163918932616305e-07</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>2.165707921898365e-07</v>
+        <v>2.163271811034922e-07</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>2.161532062638375e-07</v>
+        <v>2.158354122148307e-07</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>2.154143441320889e-07</v>
+        <v>2.149871214931199e-07</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>2.145819800667904e-07</v>
+        <v>2.140381709516917e-07</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>2.138934414629915e-07</v>
+        <v>2.132550560504141e-07</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>2.135860557157442e-07</v>
+        <v>2.129042722491575e-07</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>2.13897150220099e-07</v>
+        <v>2.132523150077914e-07</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>2.150640523711078e-07</v>
+        <v>2.14565679786186e-07</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>2.172949270348794e-07</v>
+        <v>2.17078504838674e-07</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>2.203051150040726e-07</v>
+        <v>2.204781167946485e-07</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>2.233994531035116e-07</v>
+        <v>2.239963687102972e-07</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>2.258702522416922e-07</v>
+        <v>2.268512155450423e-07</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>2.270098233271127e-07</v>
+        <v>2.282606122583083e-07</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>2.263254564814528e-07</v>
+        <v>2.276762983626913e-07</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>2.242863481647475e-07</v>
+        <v>2.255960626151614e-07</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>2.216306220969091e-07</v>
+        <v>2.228101454863019e-07</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>2.190964145335854e-07</v>
+        <v>2.201088010789962e-07</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>2.172963125968866e-07</v>
+        <v>2.18148816156879e-07</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>2.162831985212155e-07</v>
+        <v>2.169919728027712e-07</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>2.159540421048161e-07</v>
+        <v>2.165343074872091e-07</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>2.162058065436862e-07</v>
+        <v>2.166718496620891e-07</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>2.169354550338245e-07</v>
+        <v>2.173006287793078e-07</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>2.180399507712295e-07</v>
+        <v>2.183166742907621e-07</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>2.194162569518978e-07</v>
+        <v>2.19616015648347e-07</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>2.209613367718305e-07</v>
+        <v>2.210946823039617e-07</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>2.225721534270233e-07</v>
+        <v>2.226487037095001e-07</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>2.241456701134773e-07</v>
+        <v>2.241741093168618e-07</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>2.255788500271894e-07</v>
+        <v>2.255669285779419e-07</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>2.267686563641579e-07</v>
+        <v>2.267231909446367e-07</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.276120523203805e-07</v>
+        <v>2.275389258688425e-07</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.280098906883798e-07</v>
+        <v>2.279140907589378e-07</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.279569506086923e-07</v>
+        <v>2.278434956912366e-07</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.275444875697509e-07</v>
+        <v>2.274193785584655e-07</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.268681567712067e-07</v>
+        <v>2.267384203553775e-07</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.260236134127118e-07</v>
+        <v>2.258973020767268e-07</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>2.251065126939161e-07</v>
+        <v>2.249927047172652e-07</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>2.242125098144716e-07</v>
+        <v>2.241213092717466e-07</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>2.234372599740303e-07</v>
+        <v>2.23379796734925e-07</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>2.22876418372242e-07</v>
+        <v>2.228648481015523e-07</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>2.22625640208759e-07</v>
+        <v>2.226731443663825e-07</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>2.227805806832321e-07</v>
+        <v>2.229013665241685e-07</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>2.234368949953131e-07</v>
+        <v>2.236461955696641e-07</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>2.246902383446517e-07</v>
+        <v>2.250043124976208e-07</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>2.266175714545556e-07</v>
+        <v>2.270522054979802e-07</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>2.291899512946787e-07</v>
+        <v>2.297519710127119e-07</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>2.323411854843095e-07</v>
+        <v>2.330254706653577e-07</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>2.36005040474904e-07</v>
+        <v>2.367945216120993e-07</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>2.401152827179097e-07</v>
+        <v>2.409809410091093e-07</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>2.446056786647727e-07</v>
+        <v>2.455065460125594e-07</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>2.494099947669514e-07</v>
+        <v>2.502931537786332e-07</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>2.544619974758922e-07</v>
+        <v>2.552625814635026e-07</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>2.596954579741511e-07</v>
+        <v>2.603366511379639e-07</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.658982079961986e-07</v>
+        <v>2.663243735392855e-07</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.770946820217804e-07</v>
+        <v>2.773969065815935e-07</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.980352949076824e-07</v>
+        <v>2.984792840901253e-07</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>3.308465575375094e-07</v>
+        <v>3.317537635689883e-07</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>3.734759778787039e-07</v>
+        <v>3.750342756469388e-07</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>4.234981691114651e-07</v>
+        <v>4.257449626818254e-07</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>4.784877444158785e-07</v>
+        <v>4.813099670313813e-07</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>5.360193169720129e-07</v>
+        <v>5.391534310533232e-07</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>5.936570567266895e-07</v>
+        <v>5.966912609478524e-07</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>6.482992766046832e-07</v>
+        <v>6.508142282936097e-07</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>6.957889785767279e-07</v>
+        <v>6.975808234135126e-07</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>7.318756144524431e-07</v>
+        <v>7.32975757385375e-07</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>7.523086360413033e-07</v>
+        <v>7.529837412868671e-07</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>7.535280676173313e-07</v>
+        <v>7.542530149123714e-07</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>7.386784772438729e-07</v>
+        <v>7.398738028805034e-07</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>7.146746120559363e-07</v>
+        <v>7.1655886359107e-07</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>6.884732343307087e-07</v>
+        <v>6.910613252165001e-07</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>6.670311063453033e-07</v>
+        <v>6.701343159291496e-07</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>6.566586441601789e-07</v>
+        <v>6.599015911137023e-07</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>6.563955146977704e-07</v>
+        <v>6.594070911337881e-07</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>6.607034563909712e-07</v>
+        <v>6.632370469381907e-07</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>6.639728235536291e-07</v>
+        <v>6.659081799452875e-07</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>6.605939704996039e-07</v>
+        <v>6.619372115734661e-07</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>6.450396944833884e-07</v>
+        <v>6.459218928065341e-07</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>6.155638693118954e-07</v>
+        <v>6.161762296223628e-07</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>5.756941171242319e-07</v>
+        <v>5.761975648885263e-07</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>5.293494367704455e-07</v>
+        <v>5.298679085472896e-07</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>4.804488271006069e-07</v>
+        <v>4.81069270540941e-07</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>4.329112869646525e-07</v>
+        <v>4.336836608116334e-07</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>3.906558152126868e-07</v>
+        <v>3.915930893016888e-07</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>3.575400138952216e-07</v>
+        <v>3.586186912877789e-07</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>3.352779286971363e-07</v>
+        <v>3.364562750275352e-07</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>3.229321260613323e-07</v>
+        <v>3.241727183880696e-07</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.194007488593915e-07</v>
+        <v>3.206718739648962e-07</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>3.235819399629318e-07</v>
+        <v>3.248575943535649e-07</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>3.343738422435442e-07</v>
+        <v>3.356337321495987e-07</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>3.506745985728516e-07</v>
+        <v>3.519041399485524e-07</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>3.713823518224502e-07</v>
+        <v>3.725726703459544e-07</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>3.953952448639201e-07</v>
+        <v>3.965431759373167e-07</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>4.216114205689082e-07</v>
+        <v>4.227195093182182e-07</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>4.489290218089726e-07</v>
+        <v>4.500055230841491e-07</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>4.762461914557658e-07</v>
+        <v>4.773050698306939e-07</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>5.02461072380867e-07</v>
+        <v>5.035220021533637e-07</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>5.264842524583637e-07</v>
+        <v>5.275723686900533e-07</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>5.475639027384327e-07</v>
+        <v>5.487030479616281e-07</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>5.653170375258174e-07</v>
+        <v>5.665223830979335e-07</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>5.793793835184268e-07</v>
+        <v>5.806570552837861e-07</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>5.89386667414227e-07</v>
+        <v>5.907337457040597e-07</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>5.949746159111438e-07</v>
+        <v>5.963791355435886e-07</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>5.957789557071192e-07</v>
+        <v>5.972199059872217e-07</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>5.914354135000951e-07</v>
+        <v>5.928827382198097e-07</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>5.815803105176758e-07</v>
+        <v>5.829949131769548e-07</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>5.663226545251648e-07</v>
+        <v>5.676605494102831e-07</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>5.47093448058682e-07</v>
+        <v>5.483173698469155e-07</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>5.255530364725133e-07</v>
+        <v>5.266344542941542e-07</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>5.033617651209522e-07</v>
+        <v>5.042808825593095e-07</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>4.821799793582311e-07</v>
+        <v>4.829257344496304e-07</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>4.636680245386589e-07</v>
+        <v>4.642380897724428e-07</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>4.494862460164747e-07</v>
+        <v>4.49887028335002e-07</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>4.412949891459705e-07</v>
+        <v>4.415416299446171e-07</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>4.407545992814166e-07</v>
+        <v>4.408709744085751e-07</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>4.495254217770847e-07</v>
+        <v>4.495441415341643e-07</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>4.692678019872527e-07</v>
+        <v>4.692302111286791e-07</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>5.016420852661592e-07</v>
+        <v>5.01598262999375e-07</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>5.48308616968135e-07</v>
+        <v>5.483173769535997e-07</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>6.106105835602503e-07</v>
+        <v>6.107380280279362e-07</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>6.859225357842751e-07</v>
+        <v>6.862239630722575e-07</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>7.689181957449541e-07</v>
+        <v>7.694257875951782e-07</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>8.542195208028304e-07</v>
+        <v>8.549421063728026e-07</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>9.364484683187441e-07</v>
+        <v>9.373715241815326e-07</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.010226995653301e-06</v>
+        <v>1.011312645797535e-06</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.070199497703104e-06</v>
+        <v>1.07138960624109e-06</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.111215483609432e-06</v>
+        <v>1.112459926976455e-06</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.128234388897211e-06</v>
+        <v>1.129506207703319e-06</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.17986872382974e-06</v>
+        <v>1.181249085469761e-06</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.410374327184016e-06</v>
+        <v>1.412142825638927e-06</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.714254104277712e-06</v>
+        <v>1.716517542747202e-06</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.958067915073079e-06</v>
+        <v>1.960719854589361e-06</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>2.021665327163951e-06</v>
+        <v>2.024407886837054e-06</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.924989080428937e-06</v>
+        <v>1.927562744271929e-06</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.771965936494613e-06</v>
+        <v>1.774287319605153e-06</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.666776036779554e-06</v>
+        <v>1.668938201071739e-06</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.64716921729369e-06</v>
+        <v>1.649325201213968e-06</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.642078286891936e-06</v>
+        <v>1.644250402112967e-06</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.615399033869171e-06</v>
+        <v>1.617541584666958e-06</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.569504553023201e-06</v>
+        <v>1.571572494973257e-06</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.507972998248248e-06</v>
+        <v>1.509924088526491e-06</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.434382523438656e-06</v>
+        <v>1.436177320821404e-06</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.35231128248881e-06</v>
+        <v>1.353913147352785e-06</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.26533742929287e-06</v>
+        <v>1.266712523615194e-06</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.176921499068776e-06</v>
+        <v>1.178039379712626e-06</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.088837054404514e-06</v>
+        <v>1.089679182453566e-06</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.001595350932352e-06</v>
+        <v>1.002161458950014e-06</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>9.156772041020588e-07</v>
+        <v>9.159854496761647e-07</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>8.315634293633986e-07</v>
+        <v>8.316503951062103e-07</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>7.497348421659086e-07</v>
+        <v>7.496555357141134e-07</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>6.706722579594245e-07</v>
+        <v>6.705001119741372e-07</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>5.948564921934923e-07</v>
+        <v>5.946833643602536e-07</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>5.227698170544679e-07</v>
+        <v>5.227059052605534e-07</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>4.553075579474235e-07</v>
+        <v>4.554573490661338e-07</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>3.943439794823977e-07</v>
+        <v>3.947492478126763e-07</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>3.418951752378848e-07</v>
+        <v>3.4252672410333e-07</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.999772387923489e-07</v>
+        <v>3.007349005412132e-07</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.70466382807791e-07</v>
+        <v>2.711834018523874e-07</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>2.528876863331241e-07</v>
+        <v>2.53404389751524e-07</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>2.448145080502494e-07</v>
+        <v>2.450394609425648e-07</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.437610774463517e-07</v>
+        <v>2.43672935693475e-07</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.472416240086357e-07</v>
+        <v>2.468891342722407e-07</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>2.527703772243073e-07</v>
+        <v>2.522723769468479e-07</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.578615665805631e-07</v>
+        <v>2.574069839852743e-07</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.602563357043873e-07</v>
+        <v>2.600918136590845e-07</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.600075809596146e-07</v>
+        <v>2.603113915473817e-07</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>2.585181118054406e-07</v>
+        <v>2.593265306424998e-07</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>2.572076540558738e-07</v>
+        <v>2.584140376557758e-07</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>2.574959335249182e-07</v>
+        <v>2.588507192985432e-07</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.607952325285256e-07</v>
+        <v>2.619068476141436e-07</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.673746263635805e-07</v>
+        <v>2.678490699707398e-07</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>2.751387769666664e-07</v>
+        <v>2.748683085606139e-07</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>2.818062668703869e-07</v>
+        <v>2.809902921051971e-07</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>2.865781682436047e-07</v>
+        <v>2.855167842705558e-07</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>2.897401712122985e-07</v>
+        <v>2.886831204530434e-07</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>2.916027835446133e-07</v>
+        <v>2.907459975330155e-07</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>2.924765130086937e-07</v>
+        <v>2.919621123908264e-07</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>2.926718673726861e-07</v>
+        <v>2.925881619068337e-07</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>2.924993544047343e-07</v>
+        <v>2.928808429613909e-07</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>2.922678120088869e-07</v>
+        <v>2.930954828247499e-07</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.921731639393513e-07</v>
+        <v>2.933947974217912e-07</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.922285810848634e-07</v>
+        <v>2.937916101372186e-07</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.92430573394679e-07</v>
+        <v>2.942850791771694e-07</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>2.927756508180537e-07</v>
+        <v>2.948743627477802e-07</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>2.932603233042427e-07</v>
+        <v>2.955586190551866e-07</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>2.938811008025023e-07</v>
+        <v>2.963370063055265e-07</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>2.946344932620878e-07</v>
+        <v>2.97208682704936e-07</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>2.95517010632254e-07</v>
+        <v>2.981728064595507e-07</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>2.965251628622583e-07</v>
+        <v>2.99228535775509e-07</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>2.976554599013543e-07</v>
+        <v>3.003750288589456e-07</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>2.989044116987996e-07</v>
+        <v>3.016114439159992e-07</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>3.00268528203849e-07</v>
+        <v>3.029369391528053e-07</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>3.017443193657567e-07</v>
+        <v>3.043506727754992e-07</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>3.03328295133781e-07</v>
+        <v>3.058518029902201e-07</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.050169654571762e-07</v>
+        <v>3.074394880031033e-07</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.068068402851962e-07</v>
+        <v>3.091128860202839e-07</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.086944295671e-07</v>
+        <v>3.108711552479015e-07</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>3.106762432521415e-07</v>
+        <v>3.127134538920912e-07</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.127487912895745e-07</v>
+        <v>3.146389401589878e-07</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.149085836286584e-07</v>
+        <v>3.166467722547315e-07</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.171521302186448e-07</v>
+        <v>3.187361083854551e-07</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.194759410087935e-07</v>
+        <v>3.209061067572991e-07</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.218765259483581e-07</v>
+        <v>3.231559255763982e-07</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.243503949865941e-07</v>
+        <v>3.25484723048889e-07</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.268940580727549e-07</v>
+        <v>3.278916573809058e-07</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.295040251561007e-07</v>
+        <v>3.303758867785898e-07</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.321793314602866e-07</v>
+        <v>3.329387202509973e-07</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.34933075677931e-07</v>
+        <v>3.355934448124781e-07</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.377832234525124e-07</v>
+        <v>3.383574927109153e-07</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.407477451305294e-07</v>
+        <v>3.412483001998038e-07</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.438446110584885e-07</v>
+        <v>3.442833035326464e-07</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.470917915828881e-07</v>
+        <v>3.474799389629379e-07</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.505072570502265e-07</v>
+        <v>3.508556427441731e-07</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.541089778070109e-07</v>
+        <v>3.544278511298553e-07</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.579149241997397e-07</v>
+        <v>3.582140003734794e-07</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.6194306657491e-07</v>
+        <v>3.622315267285389e-07</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.662113752790307e-07</v>
+        <v>3.664978664485389e-07</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.707378206585948e-07</v>
+        <v>3.71030455786969e-07</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.755403730601121e-07</v>
+        <v>3.758467309973351e-07</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.806370028300796e-07</v>
+        <v>3.809641283331307e-07</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.860456803149933e-07</v>
+        <v>3.864000840478484e-07</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.917843758613646e-07</v>
+        <v>3.921720343949954e-07</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>3.978710598156896e-07</v>
+        <v>3.982974156280647e-07</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>4.043237025244636e-07</v>
+        <v>4.047936640005477e-07</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>4.111602743341995e-07</v>
+        <v>4.116782157659536e-07</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>4.183987455913929e-07</v>
+        <v>4.189685071777745e-07</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>4.260570866425378e-07</v>
+        <v>4.266819744895007e-07</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>4.341532678341492e-07</v>
+        <v>4.348360539546436e-07</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>4.427052595127137e-07</v>
+        <v>4.43448181826686e-07</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>4.517310320247478e-07</v>
+        <v>4.525357943591412e-07</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>4.612485557167454e-07</v>
+        <v>4.621163278054989e-07</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>4.712758009351983e-07</v>
+        <v>4.722072184192476e-07</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>4.818307380266257e-07</v>
+        <v>4.828259024539028e-07</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>4.929313373375202e-07</v>
+        <v>4.939898161629535e-07</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>5.045955692143721e-07</v>
+        <v>5.057163957998862e-07</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>5.168414040037036e-07</v>
+        <v>5.180230776182196e-07</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>5.296868120520055e-07</v>
+        <v>5.309272978714409e-07</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>5.43149763705767e-07</v>
+        <v>5.444464928130355e-07</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>5.572482293115134e-07</v>
+        <v>5.585980986965253e-07</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>5.720001792157201e-07</v>
+        <v>5.733995517753817e-07</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>5.874235837649154e-07</v>
+        <v>5.888682883031296e-07</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>6.035752712470064e-07</v>
+        <v>6.050606358947696e-07</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>6.206956758839718e-07</v>
+        <v>6.222166860111908e-07</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>6.390794087260907e-07</v>
+        <v>6.406307535368171e-07</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>6.590210886762048e-07</v>
+        <v>6.605971612153877e-07</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>6.808153346370854e-07</v>
+        <v>6.824102317905721e-07</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>7.0475676551158e-07</v>
+        <v>7.063642880061158e-07</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>7.311400002024782e-07</v>
+        <v>7.327536526057059e-07</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>7.602596576125603e-07</v>
+        <v>7.618726483330213e-07</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>7.924103566446871e-07</v>
+        <v>7.940155979318205e-07</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>8.278867162016419e-07</v>
+        <v>8.294768241457851e-07</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>8.669833551861963e-07</v>
+        <v>8.68550649718584e-07</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>9.099640850864019e-07</v>
+        <v>9.115005943762535e-07</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>9.565424222816029e-07</v>
+        <v>9.580399612787397e-07</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.005957359012916e-06</v>
+        <v>1.007407597175727e-06</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.057432338632312e-06</v>
+        <v>1.058826802147017e-06</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.110190804491581e-06</v>
+        <v>1.111520876272233e-06</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.163456199942699e-06</v>
+        <v>1.164713119631183e-06</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.2164519683375e-06</v>
+        <v>1.217626832303533e-06</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.26840155302782e-06</v>
+        <v>1.269485314368951e-06</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.318528397365635e-06</v>
+        <v>1.319511865907244e-06</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.366055944702776e-06</v>
+        <v>1.366929786998078e-06</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.410207638391089e-06</v>
+        <v>1.410962377721128e-06</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.450206921782535e-06</v>
+        <v>1.450832938156187e-06</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.485277238228951e-06</v>
+        <v>1.485764768382926e-06</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.514642031082198e-06</v>
+        <v>1.514981168481037e-06</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.537524743694208e-06</v>
+        <v>1.537705438530284e-06</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.55357069908689e-06</v>
+        <v>1.553584060810587e-06</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.564371616038971e-06</v>
+        <v>1.564215922748073e-06</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.572080162049789e-06</v>
+        <v>1.571762592387667e-06</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.578849056978758e-06</v>
+        <v>1.578385690296034e-06</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.586831020685309e-06</v>
+        <v>1.586246837039851e-06</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.598178773028855e-06</v>
+        <v>1.597507653185784e-06</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.6150450338688e-06</v>
+        <v>1.61432975930048e-06</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.639582523064593e-06</v>
+        <v>1.63887477595064e-06</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.673942263535542e-06</v>
+        <v>1.673302617911702e-06</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.719749608776859e-06</v>
+        <v>1.719244788681424e-06</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.777362697753908e-06</v>
+        <v>1.777058967528637e-06</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.846952556884289e-06</v>
+        <v>1.846914745208935e-06</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.92869021258556e-06</v>
+        <v>1.928981712477866e-06</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.022746691275504e-06</v>
+        <v>2.023429460091208e-06</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>2.129293019371691e-06</v>
+        <v>2.13042757880452e-06</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.248500223291644e-06</v>
+        <v>2.250145659373318e-06</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.380539329453214e-06</v>
+        <v>2.382753292553447e-06</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.525428235011283e-06</v>
+        <v>2.528265086803932e-06</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>2.68131627140674e-06</v>
+        <v>2.684804473153031e-06</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>2.845103876332897e-06</v>
+        <v>2.849230875882464e-06</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>3.013668634505262e-06</v>
+        <v>3.018380589749783e-06</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>3.183888130639807e-06</v>
+        <v>3.189089909513001e-06</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>3.352639949452044e-06</v>
+        <v>3.358195129929674e-06</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>3.516801675657494e-06</v>
+        <v>3.522532545757362e-06</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>3.673250893972119e-06</v>
+        <v>3.67893845175407e-06</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>3.818865189111431e-06</v>
+        <v>3.824249142677354e-06</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>3.950553133706702e-06</v>
+        <v>3.95533881786566e-06</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>4.065664450292106e-06</v>
+        <v>4.069621293529767e-06</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>4.161877297484036e-06</v>
+        <v>4.164912130616998e-06</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>4.236877662102933e-06</v>
+        <v>4.239036465574787e-06</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>4.288351530968965e-06</v>
+        <v>4.289819434850308e-06</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>4.313984890902385e-06</v>
+        <v>4.315086174890806e-06</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>4.311464223004213e-06</v>
+        <v>4.312662264830678e-06</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>4.279277980848782e-06</v>
+        <v>4.281091545414243e-06</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>4.21834742930441e-06</v>
+        <v>4.22109672887433e-06</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>4.130053415345675e-06</v>
+        <v>4.133812137810093e-06</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>4.015776786105504e-06</v>
+        <v>4.020372094998446e-06</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>3.877327470823336e-06</v>
+        <v>3.882392635493764e-06</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>3.718194941357294e-06</v>
+        <v>3.72337534559511e-06</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>3.542279555037977e-06</v>
+        <v>3.547283095289895e-06</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>3.353481669195379e-06</v>
+        <v>3.35807875456494e-06</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>3.155701641159965e-06</v>
+        <v>3.159725193407529e-06</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>2.952839828262053e-06</v>
+        <v>2.956185281804799e-06</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>2.748796587832139e-06</v>
+        <v>2.751421889744071e-06</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>2.547472277200167e-06</v>
+        <v>2.549397887212107e-06</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>2.35276725369681e-06</v>
+        <v>2.354076144196401e-06</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>2.168125063249668e-06</v>
+        <v>2.168953607087392e-06</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.994358883081521e-06</v>
+        <v>1.994844384587287e-06</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.831342337015086e-06</v>
+        <v>1.831604290362642e-06</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.678947876273689e-06</v>
+        <v>1.679087942090327e-06</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.537047952081094e-06</v>
+        <v>1.537149957447658e-06</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.405515015661032e-06</v>
+        <v>1.405644954111913e-06</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.28422151823688e-06</v>
+        <v>1.28442754976002e-06</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.173039911032378e-06</v>
+        <v>1.173352362069265e-06</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.071841896243266e-06</v>
+        <v>1.072273319291201e-06</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>9.804265510635419e-07</v>
+        <v>9.809775036512765e-07</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>8.984606804472271e-07</v>
+        <v>8.991302504091728e-07</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>8.255970493104665e-07</v>
+        <v>8.263839719919749e-07</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>7.614884225696304e-07</v>
+        <v>7.623910808269923e-07</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>7.057875651410574e-07</v>
+        <v>7.068039893415032e-07</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>6.581472419409403e-07</v>
+        <v>6.592751099626397e-07</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>6.182202178856248e-07</v>
+        <v>6.194568551176872e-07</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>5.856592578914296e-07</v>
+        <v>5.87001637233904e-07</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>5.600967588682669e-07</v>
+        <v>5.615412703447781e-07</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>5.406821788776383e-07</v>
+        <v>5.42219166999217e-07</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>5.260738560708605e-07</v>
+        <v>5.276820646618392e-07</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>5.149081242358209e-07</v>
+        <v>5.165544475372463e-07</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>5.058213171604545e-07</v>
+        <v>5.07460799830087e-07</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>4.974497686326581e-07</v>
+        <v>4.990256057449727e-07</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>4.884298124403534e-07</v>
+        <v>4.898733494865387e-07</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>4.773977823714633e-07</v>
+        <v>4.786285152594229e-07</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>4.629900122138821e-07</v>
+        <v>4.639155872682327e-07</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>4.446879608394828e-07</v>
+        <v>4.452277831718449e-07</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>4.25623360011132e-07</v>
+        <v>4.258105630341128e-07</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>4.099132493530606e-07</v>
+        <v>4.099222191234342e-07</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.015989469655616e-07</v>
+        <v>4.017414741687024e-07</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>3.998331776269006e-07</v>
+        <v>4.003100516865217e-07</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>3.972296236127853e-07</v>
+        <v>3.978051472139198e-07</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>3.936625634893566e-07</v>
+        <v>3.940769025409767e-07</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>3.92140219745978e-07</v>
+        <v>3.922857541091657e-07</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>3.956783927643034e-07</v>
+        <v>3.956001426692039e-07</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>4.071429338646278e-07</v>
+        <v>4.070332231941838e-07</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>4.259353151828579e-07</v>
+        <v>4.260104735436405e-07</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>4.479839682655198e-07</v>
+        <v>4.483607247974699e-07</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>4.690656433133171e-07</v>
+        <v>4.697557283211393e-07</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>4.849570905270257e-07</v>
+        <v>4.858672354801898e-07</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>4.914373285939553e-07</v>
+        <v>4.923693196486682e-07</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>4.866430869246333e-07</v>
+        <v>4.873493920239997e-07</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>4.75527358350725e-07</v>
+        <v>4.758719480431414e-07</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>4.642677347736093e-07</v>
+        <v>4.64254975025795e-07</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>4.587648797423856e-07</v>
+        <v>4.585338555761655e-07</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>4.597237188700743e-07</v>
+        <v>4.594417342678064e-07</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>4.632322553275687e-07</v>
+        <v>4.63000197458984e-07</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>4.652178335052122e-07</v>
+        <v>4.650668796099523e-07</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>4.62413607920358e-07</v>
+        <v>4.623200469570018e-07</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>4.549638748571363e-07</v>
+        <v>4.549118502565485e-07</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>4.43915397806084e-07</v>
+        <v>4.439135069800858e-07</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>4.303149460023893e-07</v>
+        <v>4.30396240449423e-07</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>4.152092886812497e-07</v>
+        <v>4.15431273986378e-07</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>3.996451532818646e-07</v>
+        <v>4.000897837034483e-07</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>3.845194061140852e-07</v>
+        <v>3.852736748902612e-07</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>3.702423337181909e-07</v>
+        <v>3.713352522939751e-07</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>3.57125640354375e-07</v>
+        <v>3.585154702152275e-07</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>3.454810302828704e-07</v>
+        <v>3.470552829546938e-07</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>3.356202077639046e-07</v>
+        <v>3.37195644813045e-07</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>3.27854877057679e-07</v>
+        <v>3.291775100909254e-07</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.224967286871517e-07</v>
+        <v>3.232418237047669e-07</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>3.192169214073705e-07</v>
+        <v>3.191919065095063e-07</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>3.162025688464531e-07</v>
+        <v>3.157935314680256e-07</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.132935009722269e-07</v>
+        <v>3.12881983618053e-07</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.106674138578796e-07</v>
+        <v>3.105141915284388e-07</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.085020035765924e-07</v>
+        <v>3.087470837680279e-07</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.069749662015548e-07</v>
+        <v>3.076375889056724e-07</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.062232317175531e-07</v>
+        <v>3.072202542274697e-07</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.061904497099429e-07</v>
+        <v>3.074235127603474e-07</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>3.067630461969595e-07</v>
+        <v>3.081443808099818e-07</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>3.078274384124639e-07</v>
+        <v>3.092798698592778e-07</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>3.092700435903158e-07</v>
+        <v>3.107269913911386e-07</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>3.109772789643734e-07</v>
+        <v>3.123827568884663e-07</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>3.128355617684999e-07</v>
+        <v>3.141441778341676e-07</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>3.147313092365539e-07</v>
+        <v>3.159082657111448e-07</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>3.165509386023936e-07</v>
+        <v>3.175720320023e-07</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>3.181808670998825e-07</v>
+        <v>3.190324881905399e-07</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>3.195075119628777e-07</v>
+        <v>3.20186645758766e-07</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>3.204175265630857e-07</v>
+        <v>3.209317358629291e-07</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>3.208429408787444e-07</v>
+        <v>3.212072023647818e-07</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>3.208148168590359e-07</v>
+        <v>3.21044616056096e-07</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>3.203772802907333e-07</v>
+        <v>3.204877006853093e-07</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>3.195744569606099e-07</v>
+        <v>3.195801800008606e-07</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>3.184504726554402e-07</v>
+        <v>3.183657777511895e-07</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>3.170494531619954e-07</v>
+        <v>3.168882176847322e-07</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>3.154155242670498e-07</v>
+        <v>3.151912235499284e-07</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>3.135928117573784e-07</v>
+        <v>3.133185190952179e-07</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>3.116254414197512e-07</v>
+        <v>3.113138280690362e-07</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.095575390409452e-07</v>
+        <v>3.092208742198254e-07</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.074332304077299e-07</v>
+        <v>3.070833812960199e-07</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>3.052966413068803e-07</v>
+        <v>3.049450730460602e-07</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.031918975251719e-07</v>
+        <v>3.028496732183867e-07</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.011631248493739e-07</v>
+        <v>3.00840905561434e-07</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>2.992544490662617e-07</v>
+        <v>2.989624938236426e-07</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>2.975099959626102e-07</v>
+        <v>2.972581617534524e-07</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>2.959738913251897e-07</v>
+        <v>2.957716330992989e-07</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.946902609407748e-07</v>
+        <v>2.94546631609622e-07</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.937014422416894e-07</v>
+        <v>2.936246501906958e-07</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>2.930415240205248e-07</v>
+        <v>2.930368921703974e-07</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>2.927422184388902e-07</v>
+        <v>2.928115962022313e-07</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>2.92835237437716e-07</v>
+        <v>2.929770006644221e-07</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>2.933522929579331e-07</v>
+        <v>2.935613439351948e-07</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.943250969404724e-07</v>
+        <v>2.945928643927742e-07</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.95785361326263e-07</v>
+        <v>2.960998004153834e-07</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.977647980562384e-07</v>
+        <v>2.9811039038125e-07</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>3.002951190713255e-07</v>
+        <v>3.006528726685948e-07</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>3.034080363124597e-07</v>
+        <v>3.037554856556474e-07</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>3.071352617205699e-07</v>
+        <v>3.074464677206303e-07</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>3.115085072365823e-07</v>
+        <v>3.117540572417643e-07</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>3.165594848014356e-07</v>
+        <v>3.167064925972816e-07</v>
       </c>
     </row>
   </sheetData>
